--- a/ORM/population.xlsx
+++ b/ORM/population.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\isaim\Documents\GitHub\LINFO1212-2022-PF07\ORM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{767FC5F4-3128-41E7-8960-0CA03257AE5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{323AE3F4-E916-4603-B57A-96A45C02CFC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="95">
   <si>
     <t>Users</t>
   </si>
@@ -85,13 +85,238 @@
   </si>
   <si>
     <t>false</t>
+  </si>
+  <si>
+    <t>Halls</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>movieName</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>actors</t>
+  </si>
+  <si>
+    <t>directors</t>
+  </si>
+  <si>
+    <t>releaseDate</t>
+  </si>
+  <si>
+    <t>trailerURL</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>ageRestriction</t>
+  </si>
+  <si>
+    <t>IMDBscore</t>
+  </si>
+  <si>
+    <t>genre</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>poster</t>
+  </si>
+  <si>
+    <t>Movies</t>
+  </si>
+  <si>
+    <t>Black Panther: Wakanda Forever</t>
+  </si>
+  <si>
+    <t>Black Adam</t>
+  </si>
+  <si>
+    <t>Avatar: The Way of Water</t>
+  </si>
+  <si>
+    <t>Spider-Man: No Way Home</t>
+  </si>
+  <si>
+    <t>Queen Ramonda (Angela Bassett), Shuri (Letitia Wright), M’Baku (Winston Duke), Okoye (Danai Gurira) and the Dora Milaje (including Florence Kasumba), fight to protect their nation from intervening world powers in the wake of King T’Challa’s death. As the Wakandans strive to embrace their next chapter, the heroes must band together with the help of War Dog Nakia (Lupita Nyong’o) and Everett Ross (Martin Freeman) and forge a new path for the kingdom of Wakanda.</t>
+  </si>
+  <si>
+    <t>Nearly 5,000 years after he was bestowed with the almighty powers of the Egyptian gods--and imprisoned just as quickly--Black Adam is freed from his earthly tomb, ready to unleash his unique form of justice on the modern world.</t>
+  </si>
+  <si>
+    <t>Jake Sully lives with his newfound family formed on the extrasolar moon Pandora. Once a familiar threat returns to finish what was previously started, Jake must work with Neytiri and the army of the Na'vi race to protect their home.</t>
+  </si>
+  <si>
+    <t>With Spider-Man's identity now revealed, Peter asks Doctor Strange for help. When a spell goes wrong, dangerous foes from other worlds start to appear, forcing Peter to discover what it truly means to be Spider-Man.</t>
+  </si>
+  <si>
+    <t>Letitia Wright, Lupita Nyong'o, Danai Gurira, Winston Duke, Angela Bassett, Florence Kasumba, Tenoch Huerta</t>
+  </si>
+  <si>
+    <t>Dwayne Johnson, Aldis Hodge, Pierce Brosnan, Noah Centineo, Sarah Shahi, Quintessa Swindell, Marwan Kenzari</t>
+  </si>
+  <si>
+    <t>Sam Worthington, Zoe Saldana, Sigourney Weaver, Stephen Lang, Kate Winslet, Cliff Curtis</t>
+  </si>
+  <si>
+    <t>Tom Holland, Zendaya, Benedict Cumberbatch, Jacob Batalon, Jon Favreau, Jamie Foxx, Willem Dafoe, Alfred Molina, Benedict Wong, Marisa Tomei, Andrew Garfield, Tobey Maguire</t>
+  </si>
+  <si>
+    <t>Ryan Coogler</t>
+  </si>
+  <si>
+    <t>Jaume Collet-Serra</t>
+  </si>
+  <si>
+    <t>James Cameron</t>
+  </si>
+  <si>
+    <t>Jon Watts</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_Z3QKkl1WyM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X0tOpBuYasI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=d9MyW72ELq0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JfVOs4VSpmA</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>7.3</t>
+  </si>
+  <si>
+    <t>6.6</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>8.3</t>
+  </si>
+  <si>
+    <t>Action</t>
+  </si>
+  <si>
+    <t>Black_Panther_Wakanda_Forever.jpg</t>
+  </si>
+  <si>
+    <t>Black_Adam.jpg</t>
+  </si>
+  <si>
+    <t>Avatar_The_Way_of_Water.jpg</t>
+  </si>
+  <si>
+    <t>Spider-Man_No_Way_Home.jpg</t>
+  </si>
+  <si>
+    <t>TimeTables</t>
+  </si>
+  <si>
+    <t>hallId</t>
+  </si>
+  <si>
+    <t>movieId</t>
+  </si>
+  <si>
+    <t>day</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>Seats</t>
+  </si>
+  <si>
+    <t>timeTableId</t>
+  </si>
+  <si>
+    <t>1-2-2-0</t>
+  </si>
+  <si>
+    <t>1-2-3-1</t>
+  </si>
+  <si>
+    <t>2-2-4-1</t>
+  </si>
+  <si>
+    <t>2-2-5-1</t>
+  </si>
+  <si>
+    <t>MovieReserved</t>
+  </si>
+  <si>
+    <t>hallNumber</t>
+  </si>
+  <si>
+    <t>seatNumber</t>
+  </si>
+  <si>
+    <t>hour</t>
+  </si>
+  <si>
+    <t>Puss in Boots: The Last Wish</t>
+  </si>
+  <si>
+    <t>Puss in Boots discovers that his passion for adventure has taken its toll: he has burned through eight of his nine lives. Puss sets out on an epic journey to find the mythical Last Wish and restore his nine lives.</t>
+  </si>
+  <si>
+    <t>Antonio Banderas, Salma Hayek, Harvey Guillén, Florence Pugh, John Mulaney, Wagner Moura</t>
+  </si>
+  <si>
+    <t>Joel Crawford</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xgZLXyqbYOc</t>
+  </si>
+  <si>
+    <t>7.6</t>
+  </si>
+  <si>
+    <t>Animation</t>
+  </si>
+  <si>
+    <t>Puss_in_Boots_The_Last_Wish.jpg</t>
+  </si>
+  <si>
+    <t>1-2-3-2</t>
+  </si>
+  <si>
+    <t>Preferences</t>
+  </si>
+  <si>
+    <t>darkMode</t>
+  </si>
+  <si>
+    <t>showAll</t>
+  </si>
+  <si>
+    <t>on</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -106,16 +331,40 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -123,20 +372,279 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="fill" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -419,58 +927,124 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:T60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32.21875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.21875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="3.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="35.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="53.5546875" customWidth="1"/>
+    <col min="11" max="11" width="38.21875" customWidth="1"/>
+    <col min="12" max="12" width="34.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="37.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26" customWidth="1"/>
+    <col min="15" max="15" width="28.77734375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="42.44140625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:20" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="1"/>
-    </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="H1" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+    </row>
+    <row r="2" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="1"/>
-    </row>
-    <row r="3" spans="1:7" ht="18" x14ac:dyDescent="0.3">
+      <c r="H2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="N2" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="O2" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="R2" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="T2" s="9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="6">
         <v>44917</v>
       </c>
       <c r="C3" s="3" t="s">
@@ -485,144 +1059,1234 @@
       <c r="F3" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="G3" s="1"/>
-    </row>
-    <row r="4" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="25" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="K3" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="25">
+        <v>44876</v>
+      </c>
+      <c r="N3" s="22" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" s="25" t="s">
+        <v>56</v>
+      </c>
+      <c r="P3" s="3">
+        <v>12</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="R3" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="S3" s="3">
+        <v>161</v>
+      </c>
+      <c r="T3" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="7">
         <v>36848</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="4">
         <v>123456879</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1"/>
-    </row>
-    <row r="5" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
+      <c r="H4" s="4">
+        <v>2</v>
+      </c>
+      <c r="I4" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="K4" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="M4" s="26">
+        <v>44855</v>
+      </c>
+      <c r="N4" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="O4" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="P4" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q4" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S4" s="4">
+        <v>125</v>
+      </c>
+      <c r="T4" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="7">
         <v>36916</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="4">
         <v>123456879</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="1"/>
-    </row>
-    <row r="6" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
+      <c r="H5" s="4">
+        <v>3</v>
+      </c>
+      <c r="I5" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="K5" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="L5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M5" s="26">
+        <v>44911</v>
+      </c>
+      <c r="N5" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="O5" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="P5" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S5" s="4">
+        <v>192</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="8">
         <v>37440</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="5">
         <v>123456879</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="1"/>
-    </row>
-    <row r="7" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A7" s="3"/>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="G7" s="1"/>
-    </row>
-    <row r="8" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-      <c r="G8" s="1"/>
-    </row>
-    <row r="9" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
-      <c r="G9" s="1"/>
-    </row>
-    <row r="10" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
-      <c r="G10" s="1"/>
-    </row>
-    <row r="11" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
-    </row>
-    <row r="13" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-    </row>
-    <row r="14" spans="1:7" ht="18" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="H6" s="4">
+        <v>4</v>
+      </c>
+      <c r="I6" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="M6" s="26">
+        <v>44547</v>
+      </c>
+      <c r="N6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="O6" s="26" t="s">
+        <v>56</v>
+      </c>
+      <c r="P6" s="4">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="S6" s="4">
+        <v>148</v>
+      </c>
+      <c r="T6" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="H7" s="5">
+        <v>5</v>
+      </c>
+      <c r="I7" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J7" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="K7" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" s="27">
+        <v>44916</v>
+      </c>
+      <c r="N7" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="P7" s="5">
+        <v>7</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R7" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="S7" s="5">
+        <v>101</v>
+      </c>
+      <c r="T7" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A8" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="1"/>
+      <c r="H9" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="14"/>
+      <c r="K9" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="37"/>
+      <c r="O9" s="37"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="14"/>
+    </row>
+    <row r="10" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>1</v>
+      </c>
+      <c r="B10" s="11">
+        <v>50</v>
+      </c>
+      <c r="C10" s="1"/>
+      <c r="H10" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="K10" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="L10" s="36" t="s">
+        <v>1</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="N10" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="O10" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="P10" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q10" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="12">
+        <v>40</v>
+      </c>
+      <c r="C11" s="1"/>
+      <c r="H11" s="3">
+        <v>2</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="N11" s="3">
+        <v>3</v>
+      </c>
+      <c r="O11" s="3">
+        <v>38</v>
+      </c>
+      <c r="P11" s="3">
+        <v>5</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A12" s="5">
+        <v>3</v>
+      </c>
+      <c r="B12" s="15">
+        <v>60</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="H12" s="4">
+        <v>20</v>
+      </c>
+      <c r="I12" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K12" s="4">
+        <v>2</v>
+      </c>
+      <c r="L12" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M12" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N12" s="4">
+        <v>1</v>
+      </c>
+      <c r="O12" s="4">
+        <v>3</v>
+      </c>
+      <c r="P12" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+      <c r="H13" s="4">
+        <v>17</v>
+      </c>
+      <c r="I13" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K13" s="4">
+        <v>3</v>
+      </c>
+      <c r="L13" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M13" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N13" s="4">
+        <v>3</v>
+      </c>
+      <c r="O13" s="4">
+        <v>20</v>
+      </c>
+      <c r="P13" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="C14" s="1"/>
+      <c r="H14" s="4">
+        <v>5</v>
+      </c>
+      <c r="I14" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K14" s="4">
+        <v>4</v>
+      </c>
+      <c r="L14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N14" s="4">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <v>39</v>
+      </c>
+      <c r="P14" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A15" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B15" s="31"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="H15" s="4">
+        <v>10</v>
+      </c>
+      <c r="I15" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K15" s="4">
+        <v>5</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M15" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="N15" s="4">
+        <v>3</v>
+      </c>
+      <c r="O15" s="4">
+        <v>40</v>
+      </c>
+      <c r="P15" s="4">
+        <v>5</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" ht="18" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" s="4">
+        <v>14</v>
+      </c>
+      <c r="I16" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K16" s="4">
+        <v>6</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N16" s="4">
+        <v>1</v>
+      </c>
+      <c r="O16" s="4">
+        <v>4</v>
+      </c>
+      <c r="P16" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>1</v>
+      </c>
+      <c r="B17" s="33">
+        <v>2</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="33">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>38</v>
+      </c>
+      <c r="I17" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K17" s="4">
+        <v>7</v>
+      </c>
+      <c r="L17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M17" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="N17" s="4">
+        <v>3</v>
+      </c>
+      <c r="O17" s="4">
+        <v>21</v>
+      </c>
+      <c r="P17" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>1</v>
+      </c>
+      <c r="B18" s="34">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>3</v>
+      </c>
+      <c r="D18" s="34">
+        <v>1</v>
+      </c>
+      <c r="H18" s="4">
+        <v>27</v>
+      </c>
+      <c r="I18" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K18" s="4">
+        <v>8</v>
+      </c>
+      <c r="L18" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M18" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="N18" s="4">
+        <v>1</v>
+      </c>
+      <c r="O18" s="4">
+        <v>25</v>
+      </c>
+      <c r="P18" s="4">
+        <v>4</v>
+      </c>
+      <c r="Q18" s="34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19" s="34">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>4</v>
+      </c>
+      <c r="D19" s="34">
+        <v>1</v>
+      </c>
+      <c r="H19" s="4">
+        <v>40</v>
+      </c>
+      <c r="I19" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="4">
+        <v>9</v>
+      </c>
+      <c r="L19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="M19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" s="4">
+        <v>1</v>
+      </c>
+      <c r="O19" s="4">
+        <v>6</v>
+      </c>
+      <c r="P19" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20" s="34">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>5</v>
+      </c>
+      <c r="D20" s="34">
+        <v>1</v>
+      </c>
+      <c r="H20" s="4">
+        <v>44</v>
+      </c>
+      <c r="I20" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="K20" s="5">
+        <v>10</v>
+      </c>
+      <c r="L20" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="M20" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="N20" s="5">
+        <v>3</v>
+      </c>
+      <c r="O20" s="5">
+        <v>39</v>
+      </c>
+      <c r="P20" s="5">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A21" s="4">
+        <v>1</v>
+      </c>
+      <c r="B21" s="34">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4">
+        <v>3</v>
+      </c>
+      <c r="D21" s="34">
+        <v>2</v>
+      </c>
+      <c r="H21" s="4">
+        <v>18</v>
+      </c>
+      <c r="I21" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A22" s="4">
+        <v>1</v>
+      </c>
+      <c r="B22" s="34">
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <v>4</v>
+      </c>
+      <c r="D22" s="34">
+        <v>2</v>
+      </c>
+      <c r="H22" s="4">
+        <v>35</v>
+      </c>
+      <c r="I22" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A23" s="4">
+        <v>3</v>
+      </c>
+      <c r="B23" s="34">
+        <v>5</v>
+      </c>
+      <c r="C23" s="4">
+        <v>2</v>
+      </c>
+      <c r="D23" s="34">
+        <v>3</v>
+      </c>
+      <c r="H23" s="4">
+        <v>38</v>
+      </c>
+      <c r="I23" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <v>3</v>
+      </c>
+      <c r="B24" s="34">
+        <v>5</v>
+      </c>
+      <c r="C24" s="4">
+        <v>5</v>
+      </c>
+      <c r="D24" s="34">
+        <v>2</v>
+      </c>
+      <c r="H24" s="4">
+        <v>0</v>
+      </c>
+      <c r="I24" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A25" s="4">
+        <v>3</v>
+      </c>
+      <c r="B25" s="34">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4">
+        <v>2</v>
+      </c>
+      <c r="D25" s="34">
+        <v>2</v>
+      </c>
+      <c r="H25" s="4">
+        <v>12</v>
+      </c>
+      <c r="I25" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A26" s="4">
+        <v>3</v>
+      </c>
+      <c r="B26" s="34">
+        <v>1</v>
+      </c>
+      <c r="C26" s="4">
+        <v>5</v>
+      </c>
+      <c r="D26" s="34">
+        <v>1</v>
+      </c>
+      <c r="H26" s="4">
+        <v>31</v>
+      </c>
+      <c r="I26" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A27" s="4">
+        <v>3</v>
+      </c>
+      <c r="B27" s="34">
+        <v>6</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0</v>
+      </c>
+      <c r="D27" s="34">
+        <v>2</v>
+      </c>
+      <c r="H27" s="4">
+        <v>44</v>
+      </c>
+      <c r="I27" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A28" s="4">
+        <v>2</v>
+      </c>
+      <c r="B28" s="34">
+        <v>7</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
+      </c>
+      <c r="D28" s="34">
+        <v>2</v>
+      </c>
+      <c r="H28" s="4">
+        <v>20</v>
+      </c>
+      <c r="I28" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>1</v>
+      </c>
+      <c r="B29" s="35">
+        <v>9</v>
+      </c>
+      <c r="C29" s="5">
+        <v>5</v>
+      </c>
+      <c r="D29" s="35">
+        <v>0</v>
+      </c>
+      <c r="H29" s="4">
+        <v>39</v>
+      </c>
+      <c r="I29" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="H30" s="4">
+        <v>34</v>
+      </c>
+      <c r="I30" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A31" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="37"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="38"/>
+      <c r="H31" s="4">
+        <v>15</v>
+      </c>
+      <c r="I31" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" ht="18" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="D32" s="39"/>
+      <c r="H32" s="4">
+        <v>23</v>
+      </c>
+      <c r="I32" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="D33" s="40"/>
+      <c r="H33" s="4">
+        <v>14</v>
+      </c>
+      <c r="I33" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A34" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B34" s="34" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D34" s="40"/>
+      <c r="H34" s="4">
+        <v>11</v>
+      </c>
+      <c r="I34" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="D35" s="40"/>
+      <c r="H35" s="4">
+        <v>27</v>
+      </c>
+      <c r="I35" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A36" s="39"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="39"/>
+      <c r="D36" s="40"/>
+      <c r="H36" s="4">
+        <v>39</v>
+      </c>
+      <c r="I36" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A37" s="39"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="39"/>
+      <c r="D37" s="40"/>
+      <c r="H37" s="4">
+        <v>9</v>
+      </c>
+      <c r="I37" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A38" s="39"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="39"/>
+      <c r="D38" s="40"/>
+      <c r="H38" s="4">
+        <v>18</v>
+      </c>
+      <c r="I38" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A39" s="39"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="40"/>
+      <c r="H39" s="4">
+        <v>38</v>
+      </c>
+      <c r="I39" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A40" s="39"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="39"/>
+      <c r="D40" s="40"/>
+      <c r="H40" s="4">
+        <v>20</v>
+      </c>
+      <c r="I40" s="34" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A41" s="39"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="39"/>
+      <c r="D41" s="40"/>
+      <c r="H41" s="4">
+        <v>7</v>
+      </c>
+      <c r="I41" s="34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A42" s="39"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="39"/>
+      <c r="D42" s="40"/>
+      <c r="H42" s="4">
+        <v>31</v>
+      </c>
+      <c r="I42" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A43" s="39"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="39"/>
+      <c r="D43" s="40"/>
+      <c r="H43" s="4">
+        <v>1</v>
+      </c>
+      <c r="I43" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A44" s="39"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="40"/>
+      <c r="H44" s="4">
+        <v>37</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A45" s="39"/>
+      <c r="B45" s="40"/>
+      <c r="C45" s="39"/>
+      <c r="D45" s="40"/>
+      <c r="H45" s="4">
+        <v>28</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="H46" s="4">
+        <v>24</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="H47" s="4">
+        <v>22</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="H48" s="4">
+        <v>36</v>
+      </c>
+      <c r="I48" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="49" spans="8:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="H49" s="4">
+        <v>3</v>
+      </c>
+      <c r="I49" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="50" spans="8:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="H50" s="4">
+        <v>6</v>
+      </c>
+      <c r="I50" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="51" spans="8:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="H51" s="4">
+        <v>30</v>
+      </c>
+      <c r="I51" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" spans="8:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="H52" s="4">
+        <v>16</v>
+      </c>
+      <c r="I52" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="53" spans="8:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="H53" s="4">
+        <v>20</v>
+      </c>
+      <c r="I53" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="54" spans="8:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="H54" s="4">
+        <v>9</v>
+      </c>
+      <c r="I54" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="55" spans="8:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="H55" s="4">
+        <v>43</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="56" spans="8:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="H56" s="4">
+        <v>23</v>
+      </c>
+      <c r="I56" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="8:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="H57" s="4">
+        <v>45</v>
+      </c>
+      <c r="I57" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="58" spans="8:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="H58" s="4">
+        <v>41</v>
+      </c>
+      <c r="I58" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59" spans="8:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="H59" s="4">
+        <v>47</v>
+      </c>
+      <c r="I59" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="60" spans="8:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="H60" s="5">
+        <v>18</v>
+      </c>
+      <c r="I60" s="5" t="s">
+        <v>89</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="7">
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="K9:Q9"/>
+    <mergeCell ref="A31:C31"/>
     <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="H1:T1"/>
+    <mergeCell ref="A15:D15"/>
   </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
